--- a/src/code/templates/StudyDesign.xlsx
+++ b/src/code/templates/StudyDesign.xlsx
@@ -7,14 +7,16 @@
     <workbookView xWindow="480" yWindow="300" windowWidth="19464" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="DosePerBodyweight" sheetId="1" r:id="rId1"/>
+    <sheet name="readme" sheetId="3" r:id="rId1"/>
+    <sheet name="DosePerBodyweight" sheetId="1" r:id="rId2"/>
+    <sheet name="DosePerSurfaceArea" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>functionHandle = @addDosetablePerWeight</t>
   </si>
@@ -32,6 +34,34 @@
   </si>
   <si>
     <t>BWmax</t>
+  </si>
+  <si>
+    <t>BSAmin</t>
+  </si>
+  <si>
+    <t>BSAmax</t>
+  </si>
+  <si>
+    <t>functionHandle = @addDosetablePerBSA</t>
+  </si>
+  <si>
+    <t>First column function handel wich is used to set an application parameter
+available are @addDosetablePerWeight and @addDosetablePerBSA</t>
+  </si>
+  <si>
+    <t>second hadle list of parameters which are set by the function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third line header for numeric info, 
+for addDosetablePerWeight folllwoing columns are mandatory column BWmin, BWmax and targetParameter
+for @addDosetablePerBSA folllwoing columns are mandatory column BSAmin, BSAmax and targetParameter
+</t>
+  </si>
+  <si>
+    <t>additional colmuns can be added. Please make sure column name should no contain specialletters, also no spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attention MoBi internla Units are used , Body weight [kk], BSA [dm^2], DrugMass µmol </t>
   </si>
 </sst>
 </file>
@@ -66,8 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -369,9 +402,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -532,4 +608,171 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <f>D4/225.21*1000</f>
+        <v>244.21650903601082</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+10</f>
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <f>B4+10</f>
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C10" si="0">D5/225.21*1000</f>
+        <v>288.61951067892187</v>
+      </c>
+      <c r="D5">
+        <f>D4+10</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ref="A6:B10" si="1">A5+10</f>
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>333.02251232183295</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D10" si="2">D5+10</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>377.42551396474397</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>421.82851560765505</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>466.23151725056613</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>510.63451889347721</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/code/templates/StudyDesign.xlsx
+++ b/src/code/templates/StudyDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="19464" windowHeight="9000"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="19464" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="3" r:id="rId1"/>
@@ -53,15 +53,15 @@
   </si>
   <si>
     <t xml:space="preserve">Third line header for numeric info, 
-for addDosetablePerWeight folllwoing columns are mandatory column BWmin, BWmax and targetParameter
-for @addDosetablePerBSA folllwoing columns are mandatory column BSAmin, BSAmax and targetParameter
+for addDosetablePerWeight following columns are mandatory column BWmin, BWmax and targetParameter
+for @addDosetablePerBSA following columns are mandatory column BSAmin, BSAmax and targetParameter
 </t>
   </si>
   <si>
-    <t>additional colmuns can be added. Please make sure column name should no contain specialletters, also no spaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attention MoBi internla Units are used , Body weight [kk], BSA [dm^2], DrugMass µmol </t>
+    <t>additional columns can be added. Please make sure column name should no contain specialletters, also e.g. no spaces, as this name is converted into a matlab fieldname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attention MoBi internal Units are used , Body weight [kg], BSA [dm^2], DrugMass µmol </t>
   </si>
 </sst>
 </file>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
